--- a/judgements/equipo201.xlsx
+++ b/judgements/equipo201.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docencia\recuperacionInformacion\workspacePracticas\trabajo\merged_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borja\Desktop\Uni\recuperacion\miniTREC\judgements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A8DD60-9092-4387-8032-5A319491BEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9900"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equipo201" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -675,7 +676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1493,11 +1494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C88" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="0">HYPERLINK(C3,C3)</f>
+        <f>HYPERLINK(C3,C3)</f>
         <v>http://zaguan.unizar.es/record/14395</v>
       </c>
       <c r="E3">
@@ -1571,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="0">HYPERLINK(C4,C4)</f>
         <v>http://zaguan.unizar.es/record/16354</v>
       </c>
       <c r="E4">
@@ -1629,7 +1630,7 @@
         <v>http://zaguan.unizar.es/record/32388</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1737,7 +1738,7 @@
         <v>http://zaguan.unizar.es/record/76418</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,11 +1842,11 @@
         <v>41</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(C19,C19)</f>
         <v>http://zaguan.unizar.es/record/10433</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2093,7 +2094,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(C33,C33)</f>
         <v>http://zaguan.unizar.es/record/7705</v>
       </c>
       <c r="E33">
@@ -2187,7 +2188,7 @@
         <v>http://zaguan.unizar.es/record/11517</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,7 +2220,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(C40,C40)</f>
         <v>http://zaguan.unizar.es/record/15685</v>
       </c>
       <c r="E40">
@@ -2241,7 +2242,7 @@
         <v>http://zaguan.unizar.es/record/17661</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,7 +2260,7 @@
         <v>http://zaguan.unizar.es/record/30821</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,7 +2314,7 @@
         <v>http://zaguan.unizar.es/record/58077</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2331,7 +2332,7 @@
         <v>http://zaguan.unizar.es/record/62242</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,7 +2368,7 @@
         <v>http://zaguan.unizar.es/record/77920</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
